--- a/MedicalLink/Templates/0_ToolsNhanVien_Export.xlsx
+++ b/MedicalLink/Templates/0_ToolsNhanVien_Export.xlsx
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -348,9 +348,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,6 +383,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -738,9 +750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -748,7 +760,7 @@
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="30.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="27" customWidth="1"/>
     <col min="5" max="6" width="20" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.75" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.25" style="6" bestFit="1" customWidth="1"/>
@@ -757,25 +769,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -797,29 +809,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:10" s="19" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="18" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -827,13 +839,13 @@
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -856,34 +868,34 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -934,14 +946,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>

--- a/MedicalLink/Templates/0_ToolsNhanVien_Export.xlsx
+++ b/MedicalLink/Templates/0_ToolsNhanVien_Export.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="NhanVien" sheetId="1" r:id="rId1"/>
-    <sheet name="COMMON" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="COMMON" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhanVien!$B$4:$B$4</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>USERCODE</t>
   </si>
@@ -186,13 +186,40 @@
   </si>
   <si>
     <t>&amp;=&amp;=IF(F{r}&lt;&gt;"",VLOOKUP(F{r},COMMON!$D$3:$E$7,2,0),"")</t>
+  </si>
+  <si>
+    <t>3. Khoa</t>
+  </si>
+  <si>
+    <t>Khoa ID</t>
+  </si>
+  <si>
+    <t>DEPARTMENTGROUPID</t>
+  </si>
+  <si>
+    <t>Tên khoa</t>
+  </si>
+  <si>
+    <t>DEPARTMENTGROUPNAME</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DEPARTMENTGROUPNAME</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=IF(G{r}&lt;&gt;"",VLOOKUP(G{r},COMMON!$G$9:$H$100,2,0),"")</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA2].khoa_ten</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA2].khoa_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,25 +246,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -266,6 +274,36 @@
     <font>
       <i/>
       <sz val="9"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
       <color rgb="FF00B0F0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -331,74 +369,94 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,161 +806,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="27" customWidth="1"/>
-    <col min="5" max="6" width="20" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.5" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="6"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="21" customWidth="1"/>
+    <col min="5" max="6" width="20" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="19" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="L2" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="17" t="s">
+      <c r="G3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="L3" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="L4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="K5" s="13" t="s">
         <v>42</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -916,12 +1001,18 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>COMMON!$D$3:$D$5</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>COMMON!$G$9:$G$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -931,103 +1022,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="17.125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9" style="22"/>
+    <col min="3" max="3" width="6.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="22"/>
+    <col min="7" max="7" width="40.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9" style="3"/>
+    <col min="9" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="32"/>
+      <c r="D1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="E1" s="32"/>
+      <c r="G1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="23">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="23">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="23">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="23">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="23">
         <v>4</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="24">
         <v>99</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MedicalLink/Templates/0_ToolsNhanVien_Export.xlsx
+++ b/MedicalLink/Templates/0_ToolsNhanVien_Export.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NhanVien!$B$4:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>USERCODE</t>
   </si>
@@ -182,9 +182,6 @@
     <t>&amp;=[DATA1].USERGNHOM_NAME</t>
   </si>
   <si>
-    <t>&amp;=&amp;=IF(E{r}&lt;&gt;"",VLOOKUP(E{r},COMMON!$A$3:$B$7,2,0),"")</t>
-  </si>
-  <si>
     <t>&amp;=&amp;=IF(F{r}&lt;&gt;"",VLOOKUP(F{r},COMMON!$D$3:$E$7,2,0),"")</t>
   </si>
   <si>
@@ -213,6 +210,12 @@
   </si>
   <si>
     <t>&amp;=[DATA2].khoa_id</t>
+  </si>
+  <si>
+    <t>Điều dưỡng</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=IF(E{r}&lt;&gt;"",VLOOKUP(E{r},COMMON!$A$3:$B$10,2,0),"")</t>
   </si>
 </sst>
 </file>
@@ -440,6 +443,12 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,12 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,9 +811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -829,14 +832,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -858,7 +861,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>
@@ -873,7 +876,7 @@
         <v>32</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -896,8 +899,8 @@
       <c r="G3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="29" t="s">
         <v>24</v>
       </c>
@@ -928,7 +931,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>2</v>
@@ -943,7 +946,7 @@
         <v>33</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,22 +969,22 @@
         <v>36</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -990,18 +993,19 @@
     <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
-      <formula1>"Bác sĩ,Thu ngân,CNTT,Ban lãnh đạo,Khác"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>COMMON!$A$3:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>COMMON!$D$3:$D$5</xm:f>
@@ -1025,7 +1029,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1041,18 +1045,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="34"/>
+      <c r="D1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="G1" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="G1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
@@ -1122,10 +1126,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B7" s="24">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -1133,15 +1137,21 @@
       <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="24">
+        <v>99</v>
+      </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="26" t="s">
         <v>50</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
